--- a/data/georgia_census/kakheti/axmeta/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/axmeta/healthcare_staff.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3ECEF4-583A-4062-80E7-0A640F6AD7C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFAB70CD-D76D-4FA7-94AB-3E8882D8804C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE7DE933-9386-4621-82A0-3E9F23B71FD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B6A572-33F0-4D83-8CD1-11A3E8175022}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0417E24-896B-42FF-868E-ED5D80CC14BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B45D0D0-FA7F-4E00-9DB5-1946F323B2AD}"/>
 </file>